--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H2">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I2">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J2">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>3.928642942386223</v>
+        <v>2.221024955975444</v>
       </c>
       <c r="R2">
-        <v>35.357786481476</v>
+        <v>19.989224603779</v>
       </c>
       <c r="S2">
-        <v>0.0001833559519324739</v>
+        <v>0.0001329156494674712</v>
       </c>
       <c r="T2">
-        <v>0.0001997229376928731</v>
+        <v>0.0001540314572562283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H3">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I3">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J3">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>198.0777932004416</v>
+        <v>205.5370243849202</v>
       </c>
       <c r="R3">
-        <v>1782.700138803974</v>
+        <v>1849.833219464282</v>
       </c>
       <c r="S3">
-        <v>0.009244602490368081</v>
+        <v>0.0123002161737237</v>
       </c>
       <c r="T3">
-        <v>0.01006980764856294</v>
+        <v>0.01425430511302558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H4">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I4">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J4">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.4291068777913334</v>
+        <v>0.5262914486971111</v>
       </c>
       <c r="R4">
-        <v>3.861961900122001</v>
+        <v>4.736623038274</v>
       </c>
       <c r="S4">
-        <v>2.002709363310389E-05</v>
+        <v>3.14955352142951E-05</v>
       </c>
       <c r="T4">
-        <v>2.181478120397647E-05</v>
+        <v>3.649911207265326E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H5">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I5">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J5">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>61.85754808248601</v>
+        <v>79.49586351102016</v>
       </c>
       <c r="R5">
-        <v>371.145288494916</v>
+        <v>476.975181066121</v>
       </c>
       <c r="S5">
-        <v>0.002886989166285494</v>
+        <v>0.004757373076838814</v>
       </c>
       <c r="T5">
-        <v>0.002096461195836123</v>
+        <v>0.003675439326484853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H6">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I6">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J6">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>2.125201136942001</v>
+        <v>0.4873160395433334</v>
       </c>
       <c r="R6">
-        <v>19.126810232478</v>
+        <v>4.385844355890001</v>
       </c>
       <c r="S6">
-        <v>9.918648327844604E-05</v>
+        <v>2.916307973827834E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001080402114630662</v>
+        <v>3.379610819466329E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J7">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>177.3364716120689</v>
+        <v>96.61724870285944</v>
       </c>
       <c r="R7">
-        <v>1596.02824450862</v>
+        <v>869.5552383257351</v>
       </c>
       <c r="S7">
-        <v>0.008276572353767348</v>
+        <v>0.00578199012422206</v>
       </c>
       <c r="T7">
-        <v>0.009015367797445731</v>
+        <v>0.006700553081922871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J8">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>8941.107009723793</v>
@@ -948,10 +948,10 @@
         <v>80469.96308751414</v>
       </c>
       <c r="S8">
-        <v>0.4172955422877551</v>
+        <v>0.5350741521198541</v>
       </c>
       <c r="T8">
-        <v>0.4545447841395662</v>
+        <v>0.6200793640280284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J9">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>19.36961458904334</v>
+        <v>22.89430906760111</v>
       </c>
       <c r="R9">
-        <v>174.32653130139</v>
+        <v>206.04878160841</v>
       </c>
       <c r="S9">
-        <v>0.0009040104111324516</v>
+        <v>0.001370093546514324</v>
       </c>
       <c r="T9">
-        <v>0.0009847055037668403</v>
+        <v>0.001587755139387127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J10">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>2792.21081691357</v>
+        <v>3458.165382171294</v>
       </c>
       <c r="R10">
-        <v>16753.26490148142</v>
+        <v>20748.99229302777</v>
       </c>
       <c r="S10">
-        <v>0.130316875277134</v>
+        <v>0.2069514331662941</v>
       </c>
       <c r="T10">
-        <v>0.09463293987093199</v>
+        <v>0.15988601773423</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J11">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>95.93024273729</v>
+        <v>21.19883203598334</v>
       </c>
       <c r="R11">
-        <v>863.3721846356101</v>
+        <v>190.78948832385</v>
       </c>
       <c r="S11">
-        <v>0.004477215474696578</v>
+        <v>0.001268628936579005</v>
       </c>
       <c r="T11">
-        <v>0.004876867196652051</v>
+        <v>0.001470171229660254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H12">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I12">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J12">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>7.226863127247555</v>
+        <v>9.826010005677221</v>
       </c>
       <c r="R12">
-        <v>65.041768145228</v>
+        <v>88.434090051095</v>
       </c>
       <c r="S12">
-        <v>0.0003372890811444736</v>
+        <v>0.000588030538812594</v>
       </c>
       <c r="T12">
-        <v>0.0003673966698540171</v>
+        <v>0.0006814487320895621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H13">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I13">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J13">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>364.3703744523468</v>
+        <v>909.3138970410009</v>
       </c>
       <c r="R13">
-        <v>3279.333370071122</v>
+        <v>8183.825073369009</v>
       </c>
       <c r="S13">
-        <v>0.01700573909196302</v>
+        <v>0.05441723960364997</v>
       </c>
       <c r="T13">
-        <v>0.01852373011777781</v>
+        <v>0.06306230116313642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H14">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I14">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J14">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.7893556931073333</v>
+        <v>2.328359718285555</v>
       </c>
       <c r="R14">
-        <v>7.104201237966</v>
+        <v>20.95523746457</v>
       </c>
       <c r="S14">
-        <v>3.684047307060773E-05</v>
+        <v>0.0001393390215257196</v>
       </c>
       <c r="T14">
-        <v>4.012898097993957E-05</v>
+        <v>0.0001614752862003367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H15">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I15">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J15">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>113.788918956258</v>
+        <v>351.6967011864008</v>
       </c>
       <c r="R15">
-        <v>682.7335137375479</v>
+        <v>2110.180207118405</v>
       </c>
       <c r="S15">
-        <v>0.005310708013062462</v>
+        <v>0.02104703746258781</v>
       </c>
       <c r="T15">
-        <v>0.003856506772460954</v>
+        <v>0.01626046726766226</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H16">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I16">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J16">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>3.909374804426</v>
+        <v>2.155929075716667</v>
       </c>
       <c r="R16">
-        <v>35.184373239834</v>
+        <v>19.40336168145</v>
       </c>
       <c r="S16">
-        <v>0.0001824566775953876</v>
+        <v>0.0001290200330859559</v>
       </c>
       <c r="T16">
-        <v>0.0001987433910214849</v>
+        <v>0.0001495169589969177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H17">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I17">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J17">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>4.679132547895334</v>
+        <v>19.20992099142683</v>
       </c>
       <c r="R17">
-        <v>28.074795287372</v>
+        <v>115.259525948561</v>
       </c>
       <c r="S17">
-        <v>0.0002183824834986051</v>
+        <v>0.001149603978075488</v>
       </c>
       <c r="T17">
-        <v>0.0001585840389883449</v>
+        <v>0.0008881581500246165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H18">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I18">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J18">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>235.9166416422964</v>
+        <v>1777.715278986239</v>
       </c>
       <c r="R18">
-        <v>1415.499849853778</v>
+        <v>10666.29167391744</v>
       </c>
       <c r="S18">
-        <v>0.01101060112598621</v>
+        <v>0.1063860990120793</v>
       </c>
       <c r="T18">
-        <v>0.007995630282589332</v>
+        <v>0.08219150480418712</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H19">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I19">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J19">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>0.511079267789</v>
+        <v>4.551960175294333</v>
       </c>
       <c r="R19">
-        <v>3.066475606734</v>
+        <v>27.31176105176599</v>
       </c>
       <c r="S19">
-        <v>2.3852874143224E-05</v>
+        <v>0.0002724088000098994</v>
       </c>
       <c r="T19">
-        <v>1.732137606694669E-05</v>
+        <v>0.0002104569055791238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H20">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I20">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J20">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>73.67421035976299</v>
+        <v>687.5696074838846</v>
       </c>
       <c r="R20">
-        <v>294.696841439052</v>
+        <v>2750.278429935538</v>
       </c>
       <c r="S20">
-        <v>0.003438491400591031</v>
+        <v>0.04114711124111529</v>
       </c>
       <c r="T20">
-        <v>0.001664632454632133</v>
+        <v>0.02119288780932776</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H21">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I21">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J21">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>2.531178820911</v>
+        <v>4.214857015585</v>
       </c>
       <c r="R21">
-        <v>15.187072925466</v>
+        <v>25.28914209351</v>
       </c>
       <c r="S21">
-        <v>0.0001181341010179863</v>
+        <v>0.0002522351025961193</v>
       </c>
       <c r="T21">
-        <v>8.578610601710226E-05</v>
+        <v>0.000194871161169841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H22">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I22">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J22">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>122.7844965682565</v>
+        <v>0.8721812934199999</v>
       </c>
       <c r="R22">
-        <v>1105.060469114308</v>
+        <v>7.84963164078</v>
       </c>
       <c r="S22">
-        <v>0.005730545784124599</v>
+        <v>5.219506550631485E-05</v>
       </c>
       <c r="T22">
-        <v>0.006242074099729126</v>
+        <v>6.048709865040792E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H23">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I23">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J23">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>6190.657302313949</v>
+        <v>80.71298221636</v>
       </c>
       <c r="R23">
-        <v>55715.91572082554</v>
+        <v>726.41683994724</v>
       </c>
       <c r="S23">
-        <v>0.2889277237457595</v>
+        <v>0.004830210674977463</v>
       </c>
       <c r="T23">
-        <v>0.3147184106064345</v>
+        <v>0.005597568022292596</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H24">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I24">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J24">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>13.41116327858067</v>
+        <v>0.20667104852</v>
       </c>
       <c r="R24">
-        <v>120.700469507226</v>
+        <v>1.86003943668</v>
       </c>
       <c r="S24">
-        <v>0.0006259201066443594</v>
+        <v>1.23680810367548E-05</v>
       </c>
       <c r="T24">
-        <v>0.0006817918979040652</v>
+        <v>1.433295141081711E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H25">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I25">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J25">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>1933.275182203638</v>
+        <v>31.21748131287</v>
       </c>
       <c r="R25">
-        <v>11599.65109322183</v>
+        <v>187.30488787722</v>
       </c>
       <c r="S25">
-        <v>0.09022899677542809</v>
+        <v>0.001868187834754179</v>
       </c>
       <c r="T25">
-        <v>0.06552209917790926</v>
+        <v>0.001443319858714697</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H26">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I26">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J26">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>66.420327714286</v>
+        <v>0.1913656722</v>
       </c>
       <c r="R26">
-        <v>597.7829494285739</v>
+        <v>1.7222910498</v>
       </c>
       <c r="S26">
-        <v>0.003099941275987436</v>
+        <v>1.145214174105094E-05</v>
       </c>
       <c r="T26">
-        <v>0.003376652744513124</v>
+        <v>1.327150029470879E-05</v>
       </c>
     </row>
   </sheetData>
